--- a/output1.xlsx
+++ b/output1.xlsx
@@ -22,7 +22,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>DayofMonth</t>
+    <t>Day</t>
   </si>
   <si>
     <t>DepTime</t>
@@ -524,34 +524,34 @@
         <v>2008</v>
       </c>
       <c r="C3">
-        <v>6.111</v>
+        <v>6.1</v>
       </c>
       <c r="D3">
-        <v>15.753</v>
+        <v>15.8</v>
       </c>
       <c r="E3">
-        <v>1518.534</v>
+        <v>1518.5</v>
       </c>
       <c r="F3">
-        <v>1467.473</v>
+        <v>1467.5</v>
       </c>
       <c r="G3">
-        <v>1610.141</v>
+        <v>1610.1</v>
       </c>
       <c r="H3">
-        <v>1634.225</v>
+        <v>1634.2</v>
       </c>
       <c r="I3">
-        <v>2184.263</v>
+        <v>2184.3</v>
       </c>
       <c r="J3">
-        <v>108.277</v>
+        <v>108.3</v>
       </c>
       <c r="K3">
         <v>42.2</v>
       </c>
       <c r="L3">
-        <v>765.686</v>
+        <v>765.7</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.483</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>8.776</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E4">
-        <v>450.485</v>
+        <v>450.5</v>
       </c>
       <c r="F4">
-        <v>424.767</v>
+        <v>424.8</v>
       </c>
       <c r="G4">
-        <v>548.178</v>
+        <v>548.2</v>
       </c>
       <c r="H4">
-        <v>464.635</v>
+        <v>464.6</v>
       </c>
       <c r="I4">
-        <v>1944.702</v>
+        <v>1944.7</v>
       </c>
       <c r="J4">
-        <v>68.643</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="K4">
-        <v>56.785</v>
+        <v>56.8</v>
       </c>
       <c r="L4">
-        <v>574.48</v>
+        <v>574.5</v>
       </c>
       <c r="M4">
-        <v>0.018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
